--- a/project management/change register.xlsx
+++ b/project management/change register.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaini/mcip/Team05/project management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123EEB57-5793-414C-A114-07D9A3287EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F638A8-FB1E-1E46-9B02-3148C17BA589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16680" xr2:uid="{781F619A-646F-3D4F-BC06-B8E18228CA73}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19380" xr2:uid="{781F619A-646F-3D4F-BC06-B8E18228CA73}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>change</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>To avoid editing foreign keys frequently later</t>
+  </si>
+  <si>
+    <t>add a new table 'action_log' in database</t>
   </si>
 </sst>
 </file>
@@ -432,12 +435,12 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.5" customWidth="1"/>
+    <col min="1" max="1" width="50.5" customWidth="1"/>
     <col min="2" max="2" width="34.5" customWidth="1"/>
     <col min="3" max="3" width="39.33203125" customWidth="1"/>
     <col min="4" max="4" width="31.33203125" customWidth="1"/>
@@ -472,7 +475,9 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>

--- a/project management/change register.xlsx
+++ b/project management/change register.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaini/mcip/Team05/project management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F638A8-FB1E-1E46-9B02-3148C17BA589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1D4E2B-FE84-7D4A-B3AF-CD6FAD9394F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19380" xr2:uid="{781F619A-646F-3D4F-BC06-B8E18228CA73}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="8340" xr2:uid="{781F619A-646F-3D4F-BC06-B8E18228CA73}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,30 +36,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>change</t>
-  </si>
-  <si>
-    <t>reason</t>
-  </si>
-  <si>
-    <t>agreement time</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>add user management into milestone1</t>
   </si>
   <si>
-    <t>risk management</t>
-  </si>
-  <si>
-    <t>password encryption in database</t>
-  </si>
-  <si>
     <t>To avoid editing foreign keys frequently later</t>
   </si>
   <si>
     <t>add a new table 'action_log' in database</t>
+  </si>
+  <si>
+    <t>learn how to encrypt password</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Risk management</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>build an extra web-page 'action history'</t>
+  </si>
+  <si>
+    <t>to track every change(including editing) of borrowing requests</t>
   </si>
 </sst>
 </file>
@@ -110,14 +116,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,71 +445,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22056952-E7C7-D143-96EC-B79226357779}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50.5" customWidth="1"/>
-    <col min="2" max="2" width="34.5" customWidth="1"/>
-    <col min="3" max="3" width="39.33203125" customWidth="1"/>
+    <col min="2" max="2" width="49.6640625" customWidth="1"/>
+    <col min="3" max="3" width="47.1640625" customWidth="1"/>
     <col min="4" max="4" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="D2" s="4">
         <v>45018</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+    <row r="3" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4">
+        <v>45022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
